--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>startDate</t>
   </si>
@@ -458,7 +458,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J19" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J21" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -1330,17 +1330,40 @@
       <c r="Y19" s="4"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="A20" s="5">
+        <v>45043.0</v>
+      </c>
+      <c r="B20" s="5">
+        <v>45046.0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>23.8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H20" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="6">
+        <v>9.7</v>
+      </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1357,17 +1380,40 @@
       <c r="Y20" s="4"/>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="A21" s="5">
+        <v>45051.0</v>
+      </c>
+      <c r="B21" s="5">
+        <v>45053.0</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="2">
+        <v>31.3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>24.7</v>
+      </c>
+      <c r="G21" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>11.1</v>
+      </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>startDate</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>PGB Opinium</t>
+  </si>
+  <si>
+    <t>Social Changes</t>
+  </si>
+  <si>
+    <t>Pollster</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J21" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J26" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -1430,17 +1436,40 @@
       <c r="Y21" s="4"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="5">
+        <v>45051.0</v>
+      </c>
+      <c r="B22" s="5">
+        <v>45054.0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1457,17 +1486,40 @@
       <c r="Y22" s="4"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="5">
+        <v>45058.0</v>
+      </c>
+      <c r="B23" s="5">
+        <v>45060.0</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>32.7</v>
+      </c>
+      <c r="F23" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="G23" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="I23" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="6">
+        <v>7.6</v>
+      </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -1484,17 +1536,40 @@
       <c r="Y23" s="4"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="A24" s="5">
+        <v>45058.0</v>
+      </c>
+      <c r="B24" s="5">
+        <v>45061.0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="F24" s="2">
+        <v>28.4</v>
+      </c>
+      <c r="G24" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="K24" s="6">
+        <v>5.5</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -1511,17 +1586,40 @@
       <c r="Y24" s="4"/>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="A25" s="5">
+        <v>45062.0</v>
+      </c>
+      <c r="B25" s="5">
+        <v>45062.0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>25.4</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H25" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="I25" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>8.6</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -1538,17 +1636,40 @@
       <c r="Y25" s="4"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="A26" s="5">
+        <v>45061.0</v>
+      </c>
+      <c r="B26" s="5">
+        <v>45061.0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>34.06</v>
+      </c>
+      <c r="F26" s="2">
+        <v>27.79</v>
+      </c>
+      <c r="G26" s="2">
+        <v>10.01</v>
+      </c>
+      <c r="H26" s="2">
+        <v>12.42</v>
+      </c>
+      <c r="I26" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>1.58</v>
+      </c>
+      <c r="K26" s="6">
+        <v>3.39</v>
+      </c>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>Pollster</t>
+  </si>
+  <si>
+    <t>Kantar</t>
+  </si>
+  <si>
+    <t>CAPI</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J26" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J32" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -1686,17 +1692,40 @@
       <c r="Y26" s="4"/>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="A27" s="5">
+        <v>45058.0</v>
+      </c>
+      <c r="B27" s="5">
+        <v>45063.0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="6">
+        <v>15.0</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -1713,17 +1742,40 @@
       <c r="Y27" s="4"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
+      <c r="A28" s="5">
+        <v>45054.0</v>
+      </c>
+      <c r="B28" s="5">
+        <v>45064.0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K28" s="6">
+        <v>20.0</v>
+      </c>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -1740,17 +1792,40 @@
       <c r="Y28" s="4"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="A29" s="5">
+        <v>45062.0</v>
+      </c>
+      <c r="B29" s="5">
+        <v>45065.0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -1767,17 +1842,40 @@
       <c r="Y29" s="4"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
+      <c r="A30" s="5">
+        <v>45062.0</v>
+      </c>
+      <c r="B30" s="5">
+        <v>45065.0</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2">
+        <v>34.36</v>
+      </c>
+      <c r="F30" s="2">
+        <v>29.15</v>
+      </c>
+      <c r="G30" s="2">
+        <v>8.47</v>
+      </c>
+      <c r="H30" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="I30" s="2">
+        <v>11.73</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K30" s="6">
+        <v>3.09</v>
+      </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -1794,17 +1892,40 @@
       <c r="Y30" s="4"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
+      <c r="A31" s="5">
+        <v>45065.0</v>
+      </c>
+      <c r="B31" s="5">
+        <v>45067.0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="G31" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="H31" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>6.3</v>
+      </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -1821,17 +1942,40 @@
       <c r="Y31" s="4"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
+      <c r="A32" s="5">
+        <v>45065.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>45067.0</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="F32" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="G32" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H32" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>8.3</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J32" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J39" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -1992,17 +1992,40 @@
       <c r="Y32" s="4"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
+      <c r="A33" s="5">
+        <v>45072.0</v>
+      </c>
+      <c r="B33" s="5">
+        <v>45073.0</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="F33" s="2">
+        <v>25.6</v>
+      </c>
+      <c r="G33" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H33" s="2">
+        <v>13.1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="K33" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -2019,17 +2042,40 @@
       <c r="Y33" s="4"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
+      <c r="A34" s="5">
+        <v>45072.0</v>
+      </c>
+      <c r="B34" s="5">
+        <v>45075.0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34.8</v>
+      </c>
+      <c r="F34" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="K34" s="6">
+        <v>6.2</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -2046,17 +2092,40 @@
       <c r="Y34" s="4"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
+      <c r="A35" s="5">
+        <v>45072.0</v>
+      </c>
+      <c r="B35" s="5">
+        <v>45074.0</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="F35" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="G35" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>6.2</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -2073,17 +2142,40 @@
       <c r="Y35" s="4"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
+      <c r="A36" s="5">
+        <v>45072.0</v>
+      </c>
+      <c r="B36" s="5">
+        <v>45075.0</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K36" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -2100,17 +2192,40 @@
       <c r="Y36" s="4"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
+      <c r="A37" s="5">
+        <v>45076.0</v>
+      </c>
+      <c r="B37" s="5">
+        <v>45077.0</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <v>32.29</v>
+      </c>
+      <c r="F37" s="2">
+        <v>27.72</v>
+      </c>
+      <c r="G37" s="2">
+        <v>11.51</v>
+      </c>
+      <c r="H37" s="2">
+        <v>13.96</v>
+      </c>
+      <c r="I37" s="2">
+        <v>9.78</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="1"/>
+        <v>2.57</v>
+      </c>
+      <c r="K37" s="6">
+        <v>2.17</v>
+      </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -2127,17 +2242,40 @@
       <c r="Y37" s="4"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+      <c r="A38" s="5">
+        <v>45079.0</v>
+      </c>
+      <c r="B38" s="5">
+        <v>45081.0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2">
+        <v>32.8</v>
+      </c>
+      <c r="F38" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G38" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="H38" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="I38" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K38" s="6">
+        <v>8.8</v>
+      </c>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -2154,17 +2292,40 @@
       <c r="Y38" s="4"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="A39" s="5">
+        <v>45081.0</v>
+      </c>
+      <c r="B39" s="5">
+        <v>45081.0</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="F39" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H39" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I39" s="2">
+        <v>13.4</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="K39" s="6">
+        <v>4.9</v>
+      </c>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J39" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J41" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2342,17 +2342,40 @@
       <c r="Y39" s="4"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+      <c r="A40" s="5">
+        <v>45081.0</v>
+      </c>
+      <c r="B40" s="5">
+        <v>45083.0</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="F40" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="G40" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="I40" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>2.3</v>
+      </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -2369,17 +2392,40 @@
       <c r="Y40" s="4"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+      <c r="A41" s="5">
+        <v>45082.0</v>
+      </c>
+      <c r="B41" s="5">
+        <v>45083.0</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G41" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H41" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I41" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K41" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J41" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J46" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2442,17 +2442,40 @@
       <c r="Y41" s="4"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+      <c r="A42" s="5">
+        <v>45083.0</v>
+      </c>
+      <c r="B42" s="5">
+        <v>45083.0</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="F42" s="2">
+        <v>30.1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="K42" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
@@ -2469,17 +2492,40 @@
       <c r="Y42" s="4"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+      <c r="A43" s="5">
+        <v>45082.0</v>
+      </c>
+      <c r="B43" s="5">
+        <v>45084.0</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G43" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="H43" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I43" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K43" s="6">
+        <v>4.0</v>
+      </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
@@ -2496,17 +2542,40 @@
       <c r="Y43" s="4"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
+      <c r="A44" s="5">
+        <v>45086.0</v>
+      </c>
+      <c r="B44" s="5">
+        <v>45087.0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="F44" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="H44" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>2.4</v>
+      </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
@@ -2523,17 +2592,40 @@
       <c r="Y44" s="4"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
+      <c r="A45" s="5">
+        <v>45083.0</v>
+      </c>
+      <c r="B45" s="5">
+        <v>45088.0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="G45" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H45" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I45" s="2">
+        <v>11.7</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="K45" s="6">
+        <v>5.8</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -2550,17 +2642,40 @@
       <c r="Y45" s="4"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
+      <c r="A46" s="5">
+        <v>45086.0</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45088.0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="2">
+        <v>34.2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>29.7</v>
+      </c>
+      <c r="G46" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H46" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="I46" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="K46" s="6">
+        <v>4.6</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J46" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J49" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2692,17 +2692,40 @@
       <c r="Y46" s="4"/>
     </row>
     <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
+      <c r="A47" s="5">
+        <v>45086.0</v>
+      </c>
+      <c r="B47" s="5">
+        <v>45088.0</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F47" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="H47" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="I47" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="K47" s="6">
+        <v>5.2</v>
+      </c>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
@@ -2719,17 +2742,40 @@
       <c r="Y47" s="4"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
+      <c r="A48" s="5">
+        <v>45082.0</v>
+      </c>
+      <c r="B48" s="5">
+        <v>45095.0</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H48" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I48" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K48" s="6">
+        <v>18.0</v>
+      </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
@@ -2746,17 +2792,40 @@
       <c r="Y48" s="4"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
+      <c r="A49" s="5">
+        <v>45093.0</v>
+      </c>
+      <c r="B49" s="5">
+        <v>45095.0</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="F49" s="2">
+        <v>30.7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="H49" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="I49" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="K49" s="6">
+        <v>3.7</v>
+      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J49" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J50" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2842,17 +2842,40 @@
       <c r="Y49" s="4"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
+      <c r="A50" s="5">
+        <v>45096.0</v>
+      </c>
+      <c r="B50" s="5">
+        <v>45099.0</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H50" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I50" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K50" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J50" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J51" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2892,17 +2892,40 @@
       <c r="Y50" s="4"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
+      <c r="A51" s="5">
+        <v>45093.0</v>
+      </c>
+      <c r="B51" s="5">
+        <v>45098.0</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H51" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I51" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>15.0</v>
+      </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J51" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J53" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -2942,17 +2942,40 @@
       <c r="Y51" s="4"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
+      <c r="A52" s="5">
+        <v>45099.0</v>
+      </c>
+      <c r="B52" s="5">
+        <v>45100.0</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F52" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="H52" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I52" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.4</v>
+      </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
@@ -2969,17 +2992,40 @@
       <c r="Y52" s="4"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
+      <c r="A53" s="5">
+        <v>45100.0</v>
+      </c>
+      <c r="B53" s="5">
+        <v>45101.0</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="2">
+        <v>32.7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="G53" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="I53" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="K53" s="6">
+        <v>4.9</v>
+      </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J53" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J56" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3042,17 +3042,40 @@
       <c r="Y53" s="4"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
+      <c r="A54" s="5">
+        <v>45100.0</v>
+      </c>
+      <c r="B54" s="5">
+        <v>45102.0</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="F54" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="I54" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="K54" s="6">
+        <v>5.3</v>
+      </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
@@ -3069,17 +3092,40 @@
       <c r="Y54" s="4"/>
     </row>
     <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
+      <c r="A55" s="5">
+        <v>45100.0</v>
+      </c>
+      <c r="B55" s="5">
+        <v>45104.0</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G55" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H55" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="I55" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K55" s="6">
+        <v>1.0</v>
+      </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
@@ -3096,17 +3142,40 @@
       <c r="Y55" s="4"/>
     </row>
     <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
+      <c r="A56" s="5">
+        <v>45103.0</v>
+      </c>
+      <c r="B56" s="5">
+        <v>45104.0</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K56" s="6">
+        <v>6.0</v>
+      </c>
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J56" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J58" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3192,17 +3192,40 @@
       <c r="Y56" s="4"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
+      <c r="A57" s="5">
+        <v>45107.0</v>
+      </c>
+      <c r="B57" s="5">
+        <v>45109.0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="F57" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="G57" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I57" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="1"/>
+        <v>4.7</v>
+      </c>
+      <c r="K57" s="6">
+        <v>1.4</v>
+      </c>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
@@ -3219,17 +3242,40 @@
       <c r="Y57" s="4"/>
     </row>
     <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
+      <c r="A58" s="5">
+        <v>45107.0</v>
+      </c>
+      <c r="B58" s="5">
+        <v>45110.0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="6">
+        <v>1.0</v>
+      </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="25">
   <si>
     <t>startDate</t>
   </si>
@@ -470,7 +470,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J58" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J60" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3292,17 +3292,40 @@
       <c r="Y58" s="4"/>
     </row>
     <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
+      <c r="A59" s="5">
+        <v>45112.0</v>
+      </c>
+      <c r="B59" s="5">
+        <v>45114.0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F59" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="G59" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H59" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I59" s="2">
+        <v>14.6</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>1.8</v>
+      </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
@@ -3319,17 +3342,40 @@
       <c r="Y59" s="4"/>
     </row>
     <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
+      <c r="A60" s="5">
+        <v>45114.0</v>
+      </c>
+      <c r="B60" s="5">
+        <v>45116.0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="F60" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="G60" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H60" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I60" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0.8</v>
+      </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>CAPI</t>
+  </si>
+  <si>
+    <t>IBSP</t>
   </si>
 </sst>
 </file>
@@ -470,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J60" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J65" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3392,17 +3395,40 @@
       <c r="Y60" s="4"/>
     </row>
     <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
+      <c r="A61" s="5">
+        <v>45113.0</v>
+      </c>
+      <c r="B61" s="5">
+        <v>45114.0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2">
+        <v>35.05</v>
+      </c>
+      <c r="F61" s="2">
+        <v>30.78</v>
+      </c>
+      <c r="G61" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="H61" s="2">
+        <v>9.45</v>
+      </c>
+      <c r="I61" s="2">
+        <v>14.74</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="1"/>
+        <v>1.09</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
@@ -3419,17 +3445,40 @@
       <c r="Y61" s="4"/>
     </row>
     <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
+      <c r="A62" s="5">
+        <v>45117.0</v>
+      </c>
+      <c r="B62" s="5">
+        <v>45118.0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="F62" s="2">
+        <v>27.4</v>
+      </c>
+      <c r="G62" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H62" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>15.7</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K62" s="6">
+        <v>1.6</v>
+      </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
@@ -3446,17 +3495,40 @@
       <c r="Y62" s="4"/>
     </row>
     <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
+      <c r="A63" s="5">
+        <v>45118.0</v>
+      </c>
+      <c r="B63" s="5">
+        <v>45120.0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="F63" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="H63" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="I63" s="2">
+        <v>16.9</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <v>1.1</v>
+      </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
@@ -3473,17 +3545,40 @@
       <c r="Y63" s="4"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="A64" s="5">
+        <v>45110.0</v>
+      </c>
+      <c r="B64" s="5">
+        <v>45123.0</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G64" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H64" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I64" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K64" s="6">
+        <v>19.0</v>
+      </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -3500,17 +3595,40 @@
       <c r="Y64" s="4"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
+      <c r="A65" s="5">
+        <v>45124.0</v>
+      </c>
+      <c r="B65" s="5">
+        <v>45124.0</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="F65" s="2">
+        <v>29.77</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8.91</v>
+      </c>
+      <c r="H65" s="2">
+        <v>10.54</v>
+      </c>
+      <c r="I65" s="2">
+        <v>11.46</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="1"/>
+        <v>1.52</v>
+      </c>
+      <c r="K65" s="6">
+        <v>4.4</v>
+      </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J65" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J69" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3645,17 +3645,40 @@
       <c r="Y65" s="4"/>
     </row>
     <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="A66" s="5">
+        <v>45121.0</v>
+      </c>
+      <c r="B66" s="5">
+        <v>45124.0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>26.9</v>
+      </c>
+      <c r="G66" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="H66" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="I66" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K66" s="6">
+        <v>10.3</v>
+      </c>
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
@@ -3672,17 +3695,40 @@
       <c r="Y66" s="4"/>
     </row>
     <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
+      <c r="A67" s="5">
+        <v>45121.0</v>
+      </c>
+      <c r="B67" s="5">
+        <v>45124.0</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E67" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G67" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H67" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I67" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K67" s="6">
+        <v>3.0</v>
+      </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
@@ -3699,17 +3745,40 @@
       <c r="Y67" s="4"/>
     </row>
     <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
+      <c r="A68" s="5">
+        <v>45126.0</v>
+      </c>
+      <c r="B68" s="5">
+        <v>45127.0</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="F68" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="G68" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H68" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I68" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>5.9</v>
+      </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
@@ -3726,17 +3795,40 @@
       <c r="Y68" s="4"/>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
+      <c r="A69" s="5">
+        <v>45126.0</v>
+      </c>
+      <c r="B69" s="5">
+        <v>45127.0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="F69" s="2">
+        <v>28.3</v>
+      </c>
+      <c r="G69" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H69" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="I69" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>2.3</v>
+      </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J69" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J71" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3845,17 +3845,40 @@
       <c r="Y69" s="4"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
+      <c r="A70" s="5">
+        <v>45128.0</v>
+      </c>
+      <c r="B70" s="5">
+        <v>45131.0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E70" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G70" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H70" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I70" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
@@ -3872,17 +3895,40 @@
       <c r="Y70" s="4"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
+      <c r="A71" s="5">
+        <v>45135.0</v>
+      </c>
+      <c r="B71" s="5">
+        <v>45136.0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="F71" s="2">
+        <v>26.2</v>
+      </c>
+      <c r="G71" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="H71" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="I71" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>6.2</v>
+      </c>
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J71" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J74" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -3945,17 +3945,40 @@
       <c r="Y71" s="4"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
+      <c r="A72" s="5">
+        <v>45136.0</v>
+      </c>
+      <c r="B72" s="5">
+        <v>45137.0</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="F72" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G72" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H72" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I72" s="2">
+        <v>13.2</v>
+      </c>
+      <c r="J72" s="3">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="K72" s="6">
+        <v>5.8</v>
+      </c>
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
@@ -3972,17 +3995,40 @@
       <c r="Y72" s="4"/>
     </row>
     <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
+      <c r="A73" s="5">
+        <v>45135.0</v>
+      </c>
+      <c r="B73" s="5">
+        <v>45138.0</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2">
+        <v>34.7</v>
+      </c>
+      <c r="F73" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="G73" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="H73" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="I73" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="J73" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="K73" s="6">
+        <v>6.7</v>
+      </c>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
@@ -3999,17 +4045,40 @@
       <c r="Y73" s="4"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="7"/>
-      <c r="B74" s="7"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
+      <c r="A74" s="5">
+        <v>45135.0</v>
+      </c>
+      <c r="B74" s="5">
+        <v>45138.0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G74" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H74" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I74" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="J74" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J74" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J75" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4095,17 +4095,40 @@
       <c r="Y74" s="4"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
+      <c r="A75" s="5">
+        <v>45148.0</v>
+      </c>
+      <c r="B75" s="5">
+        <v>45149.0</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="2">
+        <v>34.3</v>
+      </c>
+      <c r="F75" s="2">
+        <v>28.6</v>
+      </c>
+      <c r="G75" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H75" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="I75" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="J75" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>2.4</v>
+      </c>
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J75" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J76" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4145,17 +4145,40 @@
       <c r="Y75" s="4"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
+      <c r="A76" s="5">
+        <v>45149.0</v>
+      </c>
+      <c r="B76" s="5">
+        <v>45152.0</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="F76" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="G76" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H76" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I76" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="J76" s="3">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="K76" s="6">
+        <v>7.6</v>
+      </c>
       <c r="L76" s="4"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J76" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J83" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4195,17 +4195,40 @@
       <c r="Y76" s="4"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
+      <c r="A77" s="5">
+        <v>45149.0</v>
+      </c>
+      <c r="B77" s="5">
+        <v>45152.0</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G77" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H77" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I77" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="J77" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K77" s="6">
+        <v>1.0</v>
+      </c>
       <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
@@ -4222,17 +4245,40 @@
       <c r="Y77" s="4"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
+      <c r="A78" s="5">
+        <v>45156.0</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45158.0</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E78" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="F78" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="G78" s="2">
+        <v>7.1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I78" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J78" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="6">
+        <v>10.4</v>
+      </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
@@ -4249,17 +4295,40 @@
       <c r="Y78" s="4"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="7"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
+      <c r="A79" s="5">
+        <v>45156.0</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45159.0</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2">
+        <v>32.4</v>
+      </c>
+      <c r="F79" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="G79" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="H79" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="J79" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>8.5</v>
+      </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
@@ -4276,17 +4345,40 @@
       <c r="Y79" s="4"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
+      <c r="A80" s="5">
+        <v>45156.0</v>
+      </c>
+      <c r="B80" s="5">
+        <v>45159.0</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G80" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I80" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J80" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K80" s="6">
+        <v>2.0</v>
+      </c>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
@@ -4303,17 +4395,40 @@
       <c r="Y80" s="4"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="A81" s="5">
+        <v>45156.0</v>
+      </c>
+      <c r="B81" s="5">
+        <v>45161.0</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H81" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I81" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="J81" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>12.0</v>
+      </c>
       <c r="L81" s="4"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -4330,17 +4445,40 @@
       <c r="Y81" s="4"/>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="A82" s="5">
+        <v>45161.0</v>
+      </c>
+      <c r="B82" s="5">
+        <v>45162.0</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2">
+        <v>35.59</v>
+      </c>
+      <c r="F82" s="2">
+        <v>30.35</v>
+      </c>
+      <c r="G82" s="2">
+        <v>8.89</v>
+      </c>
+      <c r="H82" s="2">
+        <v>10.71</v>
+      </c>
+      <c r="I82" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="J82" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <v>4.06</v>
+      </c>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
@@ -4357,17 +4495,40 @@
       <c r="Y82" s="4"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="A83" s="5">
+        <v>45162.0</v>
+      </c>
+      <c r="B83" s="5">
+        <v>45163.0</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="F83" s="2">
+        <v>30.2</v>
+      </c>
+      <c r="G83" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="H83" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I83" s="2">
+        <v>12.7</v>
+      </c>
+      <c r="J83" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>2.1</v>
+      </c>
       <c r="L83" s="4"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J83" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J84" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4545,17 +4545,40 @@
       <c r="Y83" s="4"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="A84" s="5">
+        <v>45163.0</v>
+      </c>
+      <c r="B84" s="5">
+        <v>45164.0</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="2">
+        <v>33.4</v>
+      </c>
+      <c r="F84" s="2">
+        <v>27.2</v>
+      </c>
+      <c r="G84" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="H84" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="I84" s="2">
+        <v>12.4</v>
+      </c>
+      <c r="J84" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>7.7</v>
+      </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="26">
   <si>
     <t>startDate</t>
   </si>
@@ -473,7 +473,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J84" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J85" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4595,17 +4595,40 @@
       <c r="Y84" s="4"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="A85" s="5">
+        <v>45152.0</v>
+      </c>
+      <c r="B85" s="5">
+        <v>45165.0</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="G85" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="H85" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="I85" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="J85" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K85" s="6">
+        <v>24.0</v>
+      </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="27">
   <si>
     <t>startDate</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>IBSP</t>
+  </si>
+  <si>
+    <t>Mands</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J85" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J92" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4645,17 +4648,40 @@
       <c r="Y85" s="4"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="A86" s="5">
+        <v>45163.0</v>
+      </c>
+      <c r="B86" s="5">
+        <v>45166.0</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="G86" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H86" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I86" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="J86" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="6">
+        <v>1.0</v>
+      </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
@@ -4672,17 +4698,40 @@
       <c r="Y86" s="4"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="A87" s="5">
+        <v>45167.0</v>
+      </c>
+      <c r="B87" s="5">
+        <v>45169.0</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="G87" s="2">
+        <v>11.8</v>
+      </c>
+      <c r="H87" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="I87" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="J87" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L87" s="4"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
@@ -4699,17 +4748,40 @@
       <c r="Y87" s="4"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="A88" s="5">
+        <v>45168.0</v>
+      </c>
+      <c r="B88" s="5">
+        <v>45169.0</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2">
+        <v>33.1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>26.7</v>
+      </c>
+      <c r="G88" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="H88" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="I88" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="J88" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="6">
+        <v>9.1</v>
+      </c>
       <c r="L88" s="4"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
@@ -4726,17 +4798,40 @@
       <c r="Y88" s="4"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="A89" s="5">
+        <v>45170.0</v>
+      </c>
+      <c r="B89" s="5">
+        <v>45172.0</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="2">
+        <v>35.3</v>
+      </c>
+      <c r="F89" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="G89" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H89" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="I89" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J89" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
@@ -4753,17 +4848,40 @@
       <c r="Y89" s="4"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="A90" s="5">
+        <v>45170.0</v>
+      </c>
+      <c r="B90" s="5">
+        <v>45173.0</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2">
+        <v>36.2</v>
+      </c>
+      <c r="F90" s="2">
+        <v>27.7</v>
+      </c>
+      <c r="G90" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="H90" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="I90" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="J90" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
@@ -4780,17 +4898,40 @@
       <c r="Y90" s="4"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="A91" s="5">
+        <v>45173.0</v>
+      </c>
+      <c r="B91" s="5">
+        <v>45174.0</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2">
+        <v>34.7</v>
+      </c>
+      <c r="F91" s="2">
+        <v>31.8</v>
+      </c>
+      <c r="G91" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H91" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="I91" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="J91" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>2.9</v>
+      </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
@@ -4807,17 +4948,40 @@
       <c r="Y91" s="4"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="A92" s="5">
+        <v>45174.0</v>
+      </c>
+      <c r="B92" s="5">
+        <v>45175.0</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2">
+        <v>37.0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="G92" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="H92" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I92" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J92" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Mands</t>
+  </si>
+  <si>
+    <t>Opinia24</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J92" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J95" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -4998,17 +5001,40 @@
       <c r="Y92" s="4"/>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="A93" s="5">
+        <v>45174.0</v>
+      </c>
+      <c r="B93" s="5">
+        <v>45175.0</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H93" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I93" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J93" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="6">
+        <v>16.0</v>
+      </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
@@ -5025,17 +5051,40 @@
       <c r="Y93" s="4"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="A94" s="5">
+        <v>45177.0</v>
+      </c>
+      <c r="B94" s="5">
+        <v>45178.0</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="F94" s="2">
+        <v>29.1</v>
+      </c>
+      <c r="G94" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H94" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="I94" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="J94" s="3">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0.3</v>
+      </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
@@ -5052,17 +5101,40 @@
       <c r="Y94" s="4"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="A95" s="5">
+        <v>45177.0</v>
+      </c>
+      <c r="B95" s="5">
+        <v>45178.0</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="F95" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G95" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H95" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I95" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="J95" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K95" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L95" s="4"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J95" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J97" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5151,17 +5151,40 @@
       <c r="Y95" s="4"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="A96" s="5">
+        <v>45177.0</v>
+      </c>
+      <c r="B96" s="5">
+        <v>45180.0</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G96" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H96" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I96" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J96" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K96" s="6">
+        <v>15.0</v>
+      </c>
       <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
@@ -5178,17 +5201,40 @@
       <c r="Y96" s="4"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="A97" s="5">
+        <v>45180.0</v>
+      </c>
+      <c r="B97" s="5">
+        <v>45180.0</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F97" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G97" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="H97" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="I97" s="2">
+        <v>11.2</v>
+      </c>
+      <c r="J97" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="K97" s="6">
+        <v>6.0</v>
+      </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J97" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J103" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5251,17 +5251,40 @@
       <c r="Y97" s="4"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
+      <c r="A98" s="5">
+        <v>45176.0</v>
+      </c>
+      <c r="B98" s="5">
+        <v>45180.0</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="2">
+        <v>38.58</v>
+      </c>
+      <c r="F98" s="2">
+        <v>30.51</v>
+      </c>
+      <c r="G98" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="H98" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="I98" s="2">
+        <v>11.57</v>
+      </c>
+      <c r="J98" s="3">
+        <f t="shared" si="1"/>
+        <v>1.99</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0.2</v>
+      </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
@@ -5278,17 +5301,40 @@
       <c r="Y98" s="4"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
+      <c r="A99" s="5">
+        <v>45182.0</v>
+      </c>
+      <c r="B99" s="5">
+        <v>45182.0</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99" s="2">
+        <v>33.3</v>
+      </c>
+      <c r="F99" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="G99" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="H99" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="I99" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="J99" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K99" s="6">
+        <v>7.9</v>
+      </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
@@ -5305,17 +5351,40 @@
       <c r="Y99" s="4"/>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
+      <c r="A100" s="5">
+        <v>45173.0</v>
+      </c>
+      <c r="B100" s="5">
+        <v>45183.0</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="F100" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="G100" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="H100" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="I100" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J100" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K100" s="6">
+        <v>24.0</v>
+      </c>
       <c r="L100" s="4"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
@@ -5332,17 +5401,40 @@
       <c r="Y100" s="4"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
-      <c r="I101" s="1"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
+      <c r="A101" s="5">
+        <v>45184.0</v>
+      </c>
+      <c r="B101" s="5">
+        <v>45185.0</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="F101" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="G101" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H101" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I101" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="J101" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0.6</v>
+      </c>
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
@@ -5359,17 +5451,40 @@
       <c r="Y101" s="4"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
+      <c r="A102" s="5">
+        <v>45184.0</v>
+      </c>
+      <c r="B102" s="5">
+        <v>45186.0</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="F102" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="G102" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="H102" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I102" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J102" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="K102" s="6">
+        <v>9.2</v>
+      </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
@@ -5386,17 +5501,40 @@
       <c r="Y102" s="4"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
-      <c r="I103" s="1"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
+      <c r="A103" s="5">
+        <v>45185.0</v>
+      </c>
+      <c r="B103" s="5">
+        <v>45186.0</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="2">
+        <v>32.8</v>
+      </c>
+      <c r="F103" s="2">
+        <v>26.3</v>
+      </c>
+      <c r="G103" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="H103" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I103" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J103" s="3">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="K103" s="6">
+        <v>7.2</v>
+      </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J103" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J107" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5551,17 +5551,40 @@
       <c r="Y103" s="4"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
+      <c r="A104" s="5">
+        <v>45184.0</v>
+      </c>
+      <c r="B104" s="5">
+        <v>45187.0</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="F104" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G104" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H104" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I104" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J104" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
@@ -5578,17 +5601,40 @@
       <c r="Y104" s="4"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
+      <c r="A105" s="5">
+        <v>45184.0</v>
+      </c>
+      <c r="B105" s="5">
+        <v>45187.0</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="2">
+        <v>35.4</v>
+      </c>
+      <c r="F105" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="G105" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H105" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="I105" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J105" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="K105" s="6">
+        <v>7.6</v>
+      </c>
       <c r="L105" s="4"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
@@ -5605,17 +5651,40 @@
       <c r="Y105" s="4"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
+      <c r="A106" s="5">
+        <v>45187.0</v>
+      </c>
+      <c r="B106" s="5">
+        <v>45188.0</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E106" s="2">
+        <v>31.6</v>
+      </c>
+      <c r="F106" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G106" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="H106" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="I106" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="J106" s="3">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="K106" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
@@ -5632,17 +5701,40 @@
       <c r="Y106" s="4"/>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
-      <c r="I107" s="1"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
+      <c r="A107" s="5">
+        <v>45189.0</v>
+      </c>
+      <c r="B107" s="5">
+        <v>45189.0</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="F107" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="G107" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H107" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="I107" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="J107" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="K107" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J107" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J109" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5751,17 +5751,40 @@
       <c r="Y107" s="4"/>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
+      <c r="A108" s="5">
+        <v>45190.0</v>
+      </c>
+      <c r="B108" s="5">
+        <v>45191.0</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="2">
+        <v>36.76</v>
+      </c>
+      <c r="F108" s="2">
+        <v>30.44</v>
+      </c>
+      <c r="G108" s="2">
+        <v>9.72</v>
+      </c>
+      <c r="H108" s="2">
+        <v>9.81</v>
+      </c>
+      <c r="I108" s="2">
+        <v>8.67</v>
+      </c>
+      <c r="J108" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
+      <c r="K108" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
@@ -5778,17 +5801,40 @@
       <c r="Y108" s="4"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
+      <c r="A109" s="5">
+        <v>45191.0</v>
+      </c>
+      <c r="B109" s="5">
+        <v>45192.0</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2">
+        <v>37.3</v>
+      </c>
+      <c r="F109" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="G109" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="H109" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="I109" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="J109" s="3">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J109" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J111" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5851,17 +5851,40 @@
       <c r="Y109" s="4"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
+      <c r="A110" s="5">
+        <v>45191.0</v>
+      </c>
+      <c r="B110" s="5">
+        <v>45193.0</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="F110" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G110" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="H110" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I110" s="2">
+        <v>8.8</v>
+      </c>
+      <c r="J110" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="K110" s="6">
+        <v>7.9</v>
+      </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -5878,17 +5901,40 @@
       <c r="Y110" s="4"/>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
+      <c r="A111" s="5">
+        <v>45191.0</v>
+      </c>
+      <c r="B111" s="5">
+        <v>45194.0</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="F111" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="G111" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H111" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I111" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="J111" s="3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K111" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J111" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J115" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -5951,17 +5951,40 @@
       <c r="Y111" s="4"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
+      <c r="A112" s="5">
+        <v>45191.0</v>
+      </c>
+      <c r="B112" s="5">
+        <v>45194.0</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="F112" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G112" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H112" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I112" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J112" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K112" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -5978,17 +6001,40 @@
       <c r="Y112" s="4"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
+      <c r="A113" s="5">
+        <v>45196.0</v>
+      </c>
+      <c r="B113" s="5">
+        <v>45196.0</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="2">
+        <v>35.1</v>
+      </c>
+      <c r="F113" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G113" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>10.4</v>
+      </c>
+      <c r="I113" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="J113" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="K113" s="6">
+        <v>5.6</v>
+      </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
@@ -6005,17 +6051,40 @@
       <c r="Y113" s="4"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="3"/>
-      <c r="K114" s="3"/>
+      <c r="A114" s="5">
+        <v>45198.0</v>
+      </c>
+      <c r="B114" s="5">
+        <v>45199.0</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="F114" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="G114" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="H114" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="I114" s="2">
+        <v>9.6</v>
+      </c>
+      <c r="J114" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1</v>
+      </c>
+      <c r="K114" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
@@ -6032,17 +6101,40 @@
       <c r="Y114" s="4"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="3"/>
-      <c r="K115" s="3"/>
+      <c r="A115" s="5">
+        <v>45199.0</v>
+      </c>
+      <c r="B115" s="5">
+        <v>45200.0</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="F115" s="2">
+        <v>26.4</v>
+      </c>
+      <c r="G115" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="I115" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J115" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="K115" s="6">
+        <v>8.5</v>
+      </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J115" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J119" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6151,17 +6151,40 @@
       <c r="Y115" s="4"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
+      <c r="A116" s="5">
+        <v>45198.0</v>
+      </c>
+      <c r="B116" s="5">
+        <v>45201.0</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="2">
+        <v>39.0</v>
+      </c>
+      <c r="F116" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G116" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H116" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I116" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J116" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K116" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L116" s="4"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
@@ -6178,17 +6201,40 @@
       <c r="Y116" s="4"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
-      <c r="I117" s="1"/>
-      <c r="J117" s="3"/>
-      <c r="K117" s="3"/>
+      <c r="A117" s="5">
+        <v>45201.0</v>
+      </c>
+      <c r="B117" s="5">
+        <v>45201.0</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="F117" s="2">
+        <v>28.2</v>
+      </c>
+      <c r="G117" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="H117" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I117" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J117" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="K117" s="6">
+        <v>5.1</v>
+      </c>
       <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -6205,17 +6251,40 @@
       <c r="Y117" s="4"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
+      <c r="A118" s="5">
+        <v>45201.0</v>
+      </c>
+      <c r="B118" s="5">
+        <v>45203.0</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="F118" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G118" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H118" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="I118" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J118" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K118" s="6">
+        <v>5.0</v>
+      </c>
       <c r="L118" s="4"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -6232,17 +6301,40 @@
       <c r="Y118" s="4"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
+      <c r="A119" s="5">
+        <v>45202.0</v>
+      </c>
+      <c r="B119" s="5">
+        <v>45203.0</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E119" s="2">
+        <v>32.9</v>
+      </c>
+      <c r="F119" s="2">
+        <v>32.3</v>
+      </c>
+      <c r="G119" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H119" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="I119" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="J119" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="K119" s="6">
+        <v>0.9</v>
+      </c>
       <c r="L119" s="4"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J119" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J121" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6351,17 +6351,40 @@
       <c r="Y119" s="4"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
+      <c r="A120" s="5">
+        <v>45202.0</v>
+      </c>
+      <c r="B120" s="5">
+        <v>45203.0</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="F120" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="G120" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H120" s="2">
+        <v>10.6</v>
+      </c>
+      <c r="I120" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="J120" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K120" s="6">
+        <v>4.8</v>
+      </c>
       <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
@@ -6378,17 +6401,40 @@
       <c r="Y120" s="4"/>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
+      <c r="A121" s="5">
+        <v>45202.0</v>
+      </c>
+      <c r="B121" s="5">
+        <v>45203.0</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E121" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="F121" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="G121" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H121" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="I121" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="J121" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K121" s="6">
+        <v>22.0</v>
+      </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J121" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J124" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6451,17 +6451,40 @@
       <c r="Y121" s="4"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="3"/>
-      <c r="K122" s="3"/>
+      <c r="A122" s="5">
+        <v>45204.0</v>
+      </c>
+      <c r="B122" s="5">
+        <v>45205.0</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="2">
+        <v>36.9</v>
+      </c>
+      <c r="F122" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="G122" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="H122" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I122" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="J122" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6</v>
+      </c>
+      <c r="K122" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
@@ -6478,17 +6501,40 @@
       <c r="Y122" s="4"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="3"/>
-      <c r="K123" s="3"/>
+      <c r="A123" s="5">
+        <v>45204.0</v>
+      </c>
+      <c r="B123" s="5">
+        <v>45206.0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="F123" s="2">
+        <v>27.9</v>
+      </c>
+      <c r="G123" s="2">
+        <v>11.4</v>
+      </c>
+      <c r="H123" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="I123" s="2">
+        <v>7.7</v>
+      </c>
+      <c r="J123" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="K123" s="6">
+        <v>8.1</v>
+      </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
@@ -6505,17 +6551,40 @@
       <c r="Y123" s="4"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
-      <c r="I124" s="1"/>
-      <c r="J124" s="3"/>
-      <c r="K124" s="3"/>
+      <c r="A124" s="5">
+        <v>45205.0</v>
+      </c>
+      <c r="B124" s="5">
+        <v>45108.0</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="2">
+        <v>34.34</v>
+      </c>
+      <c r="F124" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G124" s="2">
+        <v>8.23</v>
+      </c>
+      <c r="H124" s="2">
+        <v>11.76</v>
+      </c>
+      <c r="I124" s="2">
+        <v>10.51</v>
+      </c>
+      <c r="J124" s="3">
+        <f t="shared" si="1"/>
+        <v>5.16</v>
+      </c>
+      <c r="K124" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J124" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J127" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6555,7 +6555,7 @@
         <v>45205.0</v>
       </c>
       <c r="B124" s="5">
-        <v>45108.0</v>
+        <v>45206.0</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
@@ -6601,17 +6601,40 @@
       <c r="Y124" s="4"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
-      <c r="I125" s="1"/>
-      <c r="J125" s="3"/>
-      <c r="K125" s="3"/>
+      <c r="A125" s="5">
+        <v>45205.0</v>
+      </c>
+      <c r="B125" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="F125" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G125" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="H125" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="I125" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="J125" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K125" s="6">
+        <v>9.0</v>
+      </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
@@ -6628,17 +6651,40 @@
       <c r="Y125" s="4"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1"/>
-      <c r="J126" s="3"/>
-      <c r="K126" s="3"/>
+      <c r="A126" s="5">
+        <v>45207.0</v>
+      </c>
+      <c r="B126" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E126" s="2">
+        <v>33.8</v>
+      </c>
+      <c r="F126" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G126" s="2">
+        <v>10.2</v>
+      </c>
+      <c r="H126" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="I126" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="J126" s="3">
+        <f t="shared" si="1"/>
+        <v>2.3</v>
+      </c>
+      <c r="K126" s="6">
+        <v>7.8</v>
+      </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
@@ -6655,17 +6701,40 @@
       <c r="Y126" s="4"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
-      <c r="I127" s="1"/>
-      <c r="J127" s="3"/>
-      <c r="K127" s="3"/>
+      <c r="A127" s="5">
+        <v>45208.0</v>
+      </c>
+      <c r="B127" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="F127" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G127" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="H127" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I127" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="J127" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K127" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J127" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J130" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6751,17 +6751,40 @@
       <c r="Y127" s="4"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
-      <c r="I128" s="1"/>
-      <c r="J128" s="3"/>
-      <c r="K128" s="3"/>
+      <c r="A128" s="5">
+        <v>45208.0</v>
+      </c>
+      <c r="B128" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="F128" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="G128" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="H128" s="2">
+        <v>10.9</v>
+      </c>
+      <c r="I128" s="2">
+        <v>9.2</v>
+      </c>
+      <c r="J128" s="3">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="K128" s="6">
+        <v>7.0</v>
+      </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
@@ -6778,17 +6801,40 @@
       <c r="Y128" s="4"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="3"/>
-      <c r="K129" s="3"/>
+      <c r="A129" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="B129" s="5">
+        <v>45210.0</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E129" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="F129" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="G129" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="H129" s="2">
+        <v>10.3</v>
+      </c>
+      <c r="I129" s="2">
+        <v>8.3</v>
+      </c>
+      <c r="J129" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="K129" s="6">
+        <v>6.6</v>
+      </c>
       <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
@@ -6805,17 +6851,40 @@
       <c r="Y129" s="4"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="3"/>
-      <c r="K130" s="3"/>
+      <c r="A130" s="5">
+        <v>45210.0</v>
+      </c>
+      <c r="B130" s="5">
+        <v>45211.0</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="2">
+        <v>35.81</v>
+      </c>
+      <c r="F130" s="2">
+        <v>31.38</v>
+      </c>
+      <c r="G130" s="2">
+        <v>10.48</v>
+      </c>
+      <c r="H130" s="2">
+        <v>10.71</v>
+      </c>
+      <c r="I130" s="2">
+        <v>8.72</v>
+      </c>
+      <c r="J130" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="K130" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J130" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J131" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6901,17 +6901,40 @@
       <c r="Y130" s="4"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="3"/>
-      <c r="K131" s="3"/>
+      <c r="A131" s="5">
+        <v>45209.0</v>
+      </c>
+      <c r="B131" s="5">
+        <v>45211.0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E131" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F131" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="G131" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="H131" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="I131" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="J131" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K131" s="6">
+        <v>8.0</v>
+      </c>
       <c r="L131" s="4"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="28">
   <si>
     <t>startDate</t>
   </si>
@@ -479,7 +479,7 @@
         <v>6.5</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J131" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
+        <f t="shared" ref="J2:J133" si="1">sum(100-(E2+F2+G2+H2+I2+K2))</f>
         <v>1.7</v>
       </c>
       <c r="K2" s="6">
@@ -6951,17 +6951,40 @@
       <c r="Y131" s="4"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
-      <c r="J132" s="3"/>
-      <c r="K132" s="3"/>
+      <c r="A132" s="5">
+        <v>45210.0</v>
+      </c>
+      <c r="B132" s="5">
+        <v>45211.0</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E132" s="2">
+        <v>33.2</v>
+      </c>
+      <c r="F132" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="G132" s="2">
+        <v>11.6</v>
+      </c>
+      <c r="H132" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="I132" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="J132" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="K132" s="6">
+        <v>0.0</v>
+      </c>
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
@@ -6978,17 +7001,40 @@
       <c r="Y132" s="4"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="3"/>
-      <c r="K133" s="3"/>
+      <c r="A133" s="5">
+        <v>45270.0</v>
+      </c>
+      <c r="B133" s="5">
+        <v>45211.0</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2">
+        <v>33.9</v>
+      </c>
+      <c r="F133" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="G133" s="2">
+        <v>9.7</v>
+      </c>
+      <c r="H133" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="I133" s="2">
+        <v>8.2</v>
+      </c>
+      <c r="J133" s="3">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="K133" s="6">
+        <v>7.5</v>
+      </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>

--- a/polldata_gs_p2050_psl.xlsx
+++ b/polldata_gs_p2050_psl.xlsx
@@ -7002,7 +7002,7 @@
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="5">
-        <v>45270.0</v>
+        <v>45209.0</v>
       </c>
       <c r="B133" s="5">
         <v>45211.0</v>
